--- a/recover/excel/超市进场表.xlsx
+++ b/recover/excel/超市进场表.xlsx
@@ -102,10 +102,10 @@
     <col min="4" max="4" width="25.0" customWidth="true"/>
     <col min="5" max="5" width="25.0" customWidth="true"/>
     <col min="6" max="6" width="10.0" customWidth="true"/>
-    <col min="7" max="7" width="10.0" customWidth="true"/>
+    <col min="7" max="7" width="25.0" customWidth="true"/>
     <col min="8" max="8" width="10.0" customWidth="true"/>
-    <col min="9" max="9" width="15.0" customWidth="true"/>
-    <col min="10" max="10" width="25.0" customWidth="true"/>
+    <col min="9" max="9" width="10.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,22 +141,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>追溯码</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>数量</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>产品分类</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>供应商名称</t>
+          <t>产品分类</t>
         </is>
       </c>
     </row>
